--- a/data/trans_dic/DC_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 22,02</t>
+          <t>15,5; 22,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,24; 39,1</t>
+          <t>31,25; 38,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,95; 29,02</t>
+          <t>23,6; 29,03</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 23,18</t>
+          <t>16,06; 23,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,93; 41,74</t>
+          <t>32,85; 41,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,89; 30,7</t>
+          <t>24,8; 30,64</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 28,85</t>
+          <t>5,87; 29,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,04; 53,69</t>
+          <t>41,69; 53,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 34,24</t>
+          <t>10,36; 34,19</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,99; 30,08</t>
+          <t>24,15; 29,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,93; 73,89</t>
+          <t>36,51; 74,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,72; 57,39</t>
+          <t>30,8; 55,76</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,72; 30,98</t>
+          <t>22,69; 31,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,97; 62,11</t>
+          <t>45,13; 64,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,87; 51,61</t>
+          <t>37,71; 52,25</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 19,34</t>
+          <t>5,96; 19,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,67; 42,15</t>
+          <t>35,5; 41,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,96; 35,12</t>
+          <t>29,04; 34,82</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,53; 23,81</t>
+          <t>17,1; 23,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,24; 56,83</t>
+          <t>40,49; 56,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,86; 40,55</t>
+          <t>30,05; 40,63</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>156423</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>250312</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>78319; 113498</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>139812; 174470</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>224789; 276533</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>88800</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>142406</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>231206</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72613; 106768</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>125674; 160105</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>207055; 255798</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>116923</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79769</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>196691</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39225; 194609</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>69589; 89791</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>86560; 285511</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>275632</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>496495</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>772126</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>249895; 305476</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>357135; 726178</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>620010; 1122357</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>669</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>126343</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>431613</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>557956</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>107793; 147267</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>379674; 539066</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>496407; 687841</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>25989</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>294322</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>320311</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14339; 45985</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>270315; 317286</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>290975; 348812</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3155</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>727576</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1601027</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2328603</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>577273; 801170</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1448714; 2031324</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2089952; 2825273</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/DC_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
